--- a/graphs_EXCEL_stocking_comm_diversity_interf.xlsx
+++ b/graphs_EXCEL_stocking_comm_diversity_interf.xlsx
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/graphs_EXCEL_stocking_comm_diversity_interf.xlsx
+++ b/graphs_EXCEL_stocking_comm_diversity_interf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>All Stems</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>% Stocking Commercial Species</t>
+  </si>
+  <si>
+    <t>SAMPLE data</t>
   </si>
 </sst>
 </file>
@@ -1493,83 +1496,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -1612,7 +1617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -1627,14 +1632,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1679,19 +1684,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
